--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Current Job\TPA Network\ChainProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947DEA93-1C37-4CF3-8375-EDC15C7DFB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2D8BD4-430B-4836-A289-EA1EA2B884F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{657C1942-2C7C-45E5-8BCD-C960085F342A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{657C1942-2C7C-45E5-8BCD-C960085F342A}"/>
   </bookViews>
   <sheets>
     <sheet name="Jakarta Main Office" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>First Floor</t>
   </si>
@@ -124,16 +124,34 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>192.168.115.0/24</t>
+  </si>
+  <si>
+    <t>WLC Account</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>Yesyes22-2!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,10 +237,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -548,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACA979F-F616-4146-B2E0-42963C347E68}">
-  <dimension ref="C3:F28"/>
+  <dimension ref="C3:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,11 +590,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -600,7 +621,7 @@
       <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -614,7 +635,7 @@
       <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -628,7 +649,7 @@
       <c r="E7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -636,65 +657,65 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>32</v>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -720,7 +741,7 @@
       <c r="E16" s="2">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -734,7 +755,7 @@
       <c r="E17" s="2">
         <v>12</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -745,10 +766,10 @@
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <v>19</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -759,8 +780,8 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -774,17 +795,17 @@
       <c r="E20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>32</v>
+      <c r="F20" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
@@ -810,7 +831,7 @@
       <c r="E25" s="2">
         <v>20</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -824,7 +845,7 @@
       <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -838,8 +859,8 @@
       <c r="E27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>32</v>
+      <c r="F27" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
@@ -852,8 +873,19 @@
       <c r="E28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>32</v>
+      <c r="F28" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -863,6 +895,8 @@
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C23:F23"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Desktop\Current Job\TPA Network\ChainProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2D8BD4-430B-4836-A289-EA1EA2B884F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E5313-8731-450A-88D5-2D62724560FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{657C1942-2C7C-45E5-8BCD-C960085F342A}"/>
   </bookViews>
   <sheets>
     <sheet name="Jakarta Main Office" sheetId="1" r:id="rId1"/>
+    <sheet name="Bandung Branch Office" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>First Floor</t>
   </si>
@@ -81,9 +82,6 @@
     <t>Central Network Rooom</t>
   </si>
   <si>
-    <t>Finance, Human Capital, and Resources</t>
-  </si>
-  <si>
     <t>Board of Directors</t>
   </si>
   <si>
@@ -132,10 +130,130 @@
     <t>WLC Account</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>Yesyes22-2!</t>
+  </si>
+  <si>
+    <t>Telephone Subnet</t>
+  </si>
+  <si>
+    <t>192.168.200.0/24</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         </t>
+  </si>
+  <si>
+    <t>Human Capital</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>192.168.133.0/24</t>
+  </si>
+  <si>
+    <t>192.168.134.0/24</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>192.168.0.2/24</t>
+  </si>
+  <si>
+    <t>WLC</t>
+  </si>
+  <si>
+    <t>192.168.0.3/24</t>
+  </si>
+  <si>
+    <t>PC for Wireless Configuration</t>
+  </si>
+  <si>
+    <t>192.168.0.4/24</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>192.168.0.5/24</t>
+  </si>
+  <si>
+    <t>Business Related Web Server</t>
+  </si>
+  <si>
+    <t>Helpdesk Web Server</t>
+  </si>
+  <si>
+    <t>Finance Web Server</t>
+  </si>
+  <si>
+    <t>Human Capital Web Server</t>
+  </si>
+  <si>
+    <t>Development Web Server</t>
+  </si>
+  <si>
+    <t>File Sharing Server</t>
+  </si>
+  <si>
+    <t>192.168.0.6/24</t>
+  </si>
+  <si>
+    <t>192.168.0.7/24</t>
+  </si>
+  <si>
+    <t>192.168.0.8/24</t>
+  </si>
+  <si>
+    <t>192.168.0.9/24</t>
+  </si>
+  <si>
+    <t>192.168.0.10/24</t>
+  </si>
+  <si>
+    <t>DHCP, AAA, DNS, and SysLog Server</t>
+  </si>
+  <si>
+    <t>192.168.160.0/24</t>
+  </si>
+  <si>
+    <t>DHCP Server</t>
+  </si>
+  <si>
+    <t>192.168.170./24</t>
+  </si>
+  <si>
+    <t>192.168.150.0/24</t>
+  </si>
+  <si>
+    <t>192.168.161.0/24</t>
+  </si>
+  <si>
+    <t>192.168.162.0/24</t>
+  </si>
+  <si>
+    <t>192.168.180./24</t>
+  </si>
+  <si>
+    <t>192.168.190.0/24</t>
+  </si>
+  <si>
+    <t>LeftMLS - JakartaRight</t>
+  </si>
+  <si>
+    <t>RightMLS - JakartaLeft</t>
+  </si>
+  <si>
+    <t>Router first usable ip, MLS second usable ip</t>
+  </si>
+  <si>
+    <t>192.168.191.0/24</t>
   </si>
 </sst>
 </file>
@@ -229,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -243,8 +361,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -253,6 +371,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -569,16 +708,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACA979F-F616-4146-B2E0-42963C347E68}">
-  <dimension ref="C3:F30"/>
+  <dimension ref="C3:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" style="1" customWidth="1"/>
@@ -590,12 +729,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
@@ -605,10 +744,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -622,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -636,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -650,7 +789,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -658,13 +797,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
@@ -672,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
@@ -686,13 +825,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
@@ -700,13 +839,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2">
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
@@ -725,10 +864,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
@@ -742,7 +881,7 @@
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
@@ -756,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
@@ -766,11 +905,11 @@
       <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="9">
         <v>19</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
@@ -780,9 +919,9 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
@@ -790,22 +929,22 @@
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
@@ -815,88 +954,475 @@
         <v>2</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="9">
+        <v>301</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="9">
         <v>20</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
-        <v>301</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <v>302</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2">
-        <v>20</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="2">
-        <v>302</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="E28" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
+      <c r="F28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="2" t="s">
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="D33" s="6" t="s">
         <v>36</v>
       </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E18:E19"/>
+  <mergeCells count="9">
+    <mergeCell ref="C49:D49"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49A6270-BEDD-44D9-A0BF-1827F241D582}">
+  <dimension ref="C3:F30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="35.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2">
+        <v>151</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="2">
+        <v>153</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
+        <v>154</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2">
+        <v>155</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>156</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>157</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
+        <v>32</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="10">
+        <v>158</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>160</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="D23:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>